--- a/output/google_maps_data_Penginapan_Sleman.xlsx
+++ b/output/google_maps_data_Penginapan_Sleman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -502,16 +497,15 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/Penginapan+Sleman/@-7.7183079,110.3072452,13z/data=!4m2!2m1!6e3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -534,25 +528,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.5</v>
+        <v>-7.707674</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.707674</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.356297</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Reddoorz+Pondok+Eyang+Obi/@-7.7183079,110.3072452,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5fc4a159b2e7:0x48bd6ed884563fcb!5m2!4m1!1i2!8m2!3d-7.707674!4d110.356297!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11ftgpzlbw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Reddoorz+Pondok+Eyang+Obi/@-7.7183079,110.3072452,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5fc4a159b2e7:0x48bd6ed884563fcb!5m2!4m1!1i2!8m2!3d-7.707674!4d110.356297!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11ftgpzlbw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>seminggu lalu di 
 Google</t>
@@ -580,25 +573,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.4</v>
+        <v>-7.722252</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.722252</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.352948</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Asram+Edupark/@-7.7183079,110.3072452,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59fe77c449e1:0xb9aa4181e1d8e167!5m2!4m1!1i2!8m2!3d-7.7222525!4d110.3529476!15sChFQZW5naW5hcGFuIFNsZW1hbpIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11g_xby2w0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Asram+Edupark/@-7.7183079,110.3072452,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59fe77c449e1:0xb9aa4181e1d8e167!5m2!4m1!1i2!8m2!3d-7.7222525!4d110.3529476!15sChFQZW5naW5hcGFuIFNsZW1hbpIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11g_xby2w0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>1 hari lalu di 
 Google</t>
@@ -626,25 +618,24 @@
           <t>0877-3913-9666</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.3</v>
+        <v>-7.710036</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.710036</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.355289</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/PRIMA+SR+Hotel+%26+Convention+Yogyakarta/@-7.7183079,110.3072452,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7af688207b2a05:0x3a91c5f4ffad216!5m2!4m1!1i2!8m2!3d-7.7100362!4d110.355289!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11bwfllnhr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -667,25 +658,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.4</v>
+        <v>-7.72151</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.72151</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.362094</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RedDoorz+near+Sleman+City+Hall+2/@-7.7183079,110.3072452,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59d30c054f4b:0xac0456338bea657a!5m2!4m1!1i2!8m2!3d-7.7215095!4d110.3620941!15sChFQZW5naW5hcGFuIFNsZW1hbpIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11k059qpgt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RedDoorz+near+Sleman+City+Hall+2/@-7.7183079,110.3072452,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59d30c054f4b:0xac0456338bea657a!5m2!4m1!1i2!8m2!3d-7.7215095!4d110.3620941!15sChFQZW5naW5hcGFuIFNsZW1hbpIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11k059qpgt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>3 minggu lalu di 
 Google</t>
@@ -709,25 +699,24 @@
           <t>0812-2797-5858</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.5</v>
+        <v>-7.73046</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.73046</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.357536</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/By+The+River+Cottage/@-7.7183079,110.3072452,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5936117bc08b:0x66d395a9149d72cc!5m2!4m1!1i2!8m2!3d-7.7304604!4d110.3575356!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11sqktl6g1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/By+The+River+Cottage/@-7.7183079,110.3072452,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5936117bc08b:0x66d395a9149d72cc!5m2!4m1!1i2!8m2!3d-7.7304604!4d110.3575356!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11sqktl6g1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>2 minggu lalu di 
 Google</t>
@@ -751,25 +740,24 @@
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>2.4</v>
+      </c>
       <c r="F8" t="n">
-        <v>2.4</v>
+        <v>-7.7166</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.7166</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.345779</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Omah+Kemiri+3+Homestay/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a592734d9aa59:0x3c4df848e617cd19!5m2!4m1!1i2!8m2!3d-7.7166005!4d110.3457791!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWxvZGdl4AEA!16s%2Fg%2F11j7crmmds?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Omah+Kemiri+3+Homestay/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a592734d9aa59:0x3c4df848e617cd19!5m2!4m1!1i2!8m2!3d-7.7166005!4d110.3457791!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWxvZGdl4AEA!16s%2Fg%2F11j7crmmds?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>3 hari lalu di 
 Google</t>
@@ -793,25 +781,24 @@
           <t>0877-4545-6898</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.5</v>
+        <v>-7.730226</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.730226</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.348504</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Omah+Mbah+Mandor+by+The+Lavana/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a58bc011c12ad:0xd9dd0cd7e65dac1e!5m2!4m1!1i2!8m2!3d-7.7302262!4d110.3485043!15sChFQZW5naW5hcGFuIFNsZW1hbpIBDmNvdHRhZ2VfcmVudGFs4AEA!16s%2Fg%2F11g002stzr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Omah+Mbah+Mandor+by+The+Lavana/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a58bc011c12ad:0xd9dd0cd7e65dac1e!5m2!4m1!1i2!8m2!3d-7.7302262!4d110.3485043!15sChFQZW5naW5hcGFuIFNsZW1hbpIBDmNvdHRhZ2VfcmVudGFs4AEA!16s%2Fg%2F11g002stzr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>5 hari lalu di 
 Google</t>
@@ -835,25 +822,24 @@
           <t>0822-5542-2712</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.8</v>
+        <v>-7.723423</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.723423</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.328854</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Lavillas+Jogja/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x85df7646908512fd:0xc87721d5464006d6!5m2!4m1!1i2!8m2!3d-7.7234231!4d110.328854!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11vryhpz_x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Lavillas+Jogja/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x85df7646908512fd:0xc87721d5464006d6!5m2!4m1!1i2!8m2!3d-7.7234231!4d110.328854!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11vryhpz_x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>2 minggu lalu di 
 Google</t>
@@ -877,25 +863,24 @@
           <t>0877-8842-3343</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.5</v>
+        <v>-7.717131</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.717131</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.360346</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Tama+Hotel+Jogja/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59c3cc1abab1:0xf1d505f1f9ed1f06!5m2!4m1!1i2!8m2!3d-7.7171308!4d110.3603464!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11why4wvjk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Tama+Hotel+Jogja/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59c3cc1abab1:0xf1d505f1f9ed1f06!5m2!4m1!1i2!8m2!3d-7.7171308!4d110.3603464!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11why4wvjk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>6 hari lalu di 
 Google</t>
@@ -923,25 +908,24 @@
           <t>(0274) 4360900</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.5</v>
+        <v>-7.710787</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.710787</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.370479</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Java+Village+Resort+By+Homee+Yogyakarta/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5f2a31870305:0x54bbf09aaa2b4850!5m2!4m1!1i2!8m2!3d-7.7107874!4d110.3704785!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F1pzykn4pt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -964,25 +948,24 @@
           <t>(021) 29707601</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.2</v>
+        <v>-7.727522</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.727522</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.35618</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPOT+ON+2275+Omah+Jm/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5927a316be5f:0x652ea854959e0238!5m2!4m1!1i2!8m2!3d-7.7275219!4d110.3561796!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11j2cgh1v4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1001,25 +984,24 @@
           <t>0811-2652-284</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.9</v>
+        <v>-7.720249</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.720249</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.344885</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rengganis+Homestay/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59ca91f6ca67:0xa04bdf5f4bdc7d4b!5m2!4m1!1i2!8m2!3d-7.7202487!4d110.3448853!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWxvZGdl4AEA!16s%2Fg%2F11gjmt_lmg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rengganis+Homestay/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59ca91f6ca67:0xa04bdf5f4bdc7d4b!5m2!4m1!1i2!8m2!3d-7.7202487!4d110.3448853!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWxvZGdl4AEA!16s%2Fg%2F11gjmt_lmg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>sebulan lalu di 
 Google</t>
@@ -1047,25 +1029,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.6</v>
+        <v>-7.713636</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.713636</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.359331</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RedDoorz+@+Artomoro+Guest+House/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5fab21287f67:0x8986bd8688f18a62!5m2!4m1!1i2!8m2!3d-7.7136363!4d110.3593309!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11mvgr1_fw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RedDoorz+@+Artomoro+Guest+House/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5fab21287f67:0x8986bd8688f18a62!5m2!4m1!1i2!8m2!3d-7.7136363!4d110.3593309!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11mvgr1_fw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>2 hari lalu di 
 Google</t>
@@ -1089,25 +1070,24 @@
           <t>0816-843-659</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.8</v>
+        <v>-7.699381</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.699381</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.363868</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kusuma+Syariah+Villa/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5fc5d935f633:0xb7ec65ccf9056244!5m2!4m1!1i2!8m2!3d-7.6993809!4d110.3638681!15sChFQZW5naW5hcGFuIFNsZW1hbpIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11tjbz1c_g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1130,25 +1110,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.2</v>
+        <v>-7.736192</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.736192</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.364325</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RedDoorz+near+Jombor+Bus+Station/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a58e839fbcb69:0xb6a3a72d4865740e!5m2!4m1!1i2!8m2!3d-7.7361917!4d110.364325!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11rg_q_hv_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RedDoorz+near+Jombor+Bus+Station/@-7.7166005,110.2736813,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a58e839fbcb69:0xb6a3a72d4865740e!5m2!4m1!1i2!8m2!3d-7.7361917!4d110.364325!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11rg_q_hv_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>6 hari lalu di 
 Google</t>
@@ -1176,25 +1155,24 @@
           <t>(021) 29707601</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>1.8</v>
+      </c>
       <c r="F18" t="n">
-        <v>1.8</v>
+        <v>-7.742432</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.742432</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.39429</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPOT+ON+2881+Nabila+Homestay/@-7.742432,110.3221923,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59f194415e55:0xc04a13d0a5bb3485!5m2!4m1!1i2!8m2!3d-7.742432!4d110.3942901!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11frqzlwqk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1213,25 +1191,24 @@
           <t>0817-7008-0008</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.3</v>
+        <v>-7.692525</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.692525</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.333975</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Villa+Rumah+Kita+-+Yogyakarta/@-7.6925251,110.2618776,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5f17fc16bd63:0x7567eb3ebd8f751e!5m2!4m1!1i2!8m2!3d-7.6925251!4d110.3339754!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBXZpbGxh4AEA!16s%2Fg%2F11sdnh0rjx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Rumah+Kita+-+Yogyakarta/@-7.6925251,110.2618776,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5f17fc16bd63:0x7567eb3ebd8f751e!5m2!4m1!1i2!8m2!3d-7.6925251!4d110.3339754!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBXZpbGxh4AEA!16s%2Fg%2F11sdnh0rjx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>6 bulan lalu di 
 Google</t>
@@ -1255,25 +1232,24 @@
           <t>0878-3974-5149</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.2</v>
+        <v>-7.744095</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.744095</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.3026</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Villa+Kampung+Ayem+Yogyakarta/@-7.6925251,110.2618776,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7af64662ce695b:0x2956ffec4f343863!5m2!4m1!1i2!8m2!3d-7.7440946!4d110.3026002!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWxvZGdl4AEA!16s%2Fg%2F11ggng8nlr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Kampung+Ayem+Yogyakarta/@-7.6925251,110.2618776,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7af64662ce695b:0x2956ffec4f343863!5m2!4m1!1i2!8m2!3d-7.7440946!4d110.3026002!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWxvZGdl4AEA!16s%2Fg%2F11ggng8nlr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>sebulan lalu di 
 Google</t>
@@ -1297,25 +1273,24 @@
           <t>0822-5449-9775</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.1</v>
+        <v>-7.711533</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.711533</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.357276</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Global+House+Syariah/@-7.6925251,110.2618776,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5f3b736a2ed5:0x466063d6cea7d711!5m2!4m1!1i2!8m2!3d-7.7115328!4d110.3572755!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11l1fpqqfn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Global+House+Syariah/@-7.6925251,110.2618776,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5f3b736a2ed5:0x466063d6cea7d711!5m2!4m1!1i2!8m2!3d-7.7115328!4d110.3572755!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11l1fpqqfn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>2 hari lalu di 
 Google</t>
@@ -1339,25 +1314,24 @@
           <t>0816-843-659</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.8</v>
+        <v>-7.699381</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.699381</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.363868</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kusuma+Syariah+Villa/@-7.6925251,110.2618776,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5fc5d935f633:0xb7ec65ccf9056244!5m2!4m1!1i2!8m2!3d-7.6993809!4d110.3638681!15sChFQZW5naW5hcGFuIFNsZW1hbpIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11tjbz1c_g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kusuma+Syariah+Villa/@-7.6925251,110.2618776,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5fc5d935f633:0xb7ec65ccf9056244!5m2!4m1!1i2!8m2!3d-7.6993809!4d110.3638681!15sChFQZW5naW5hcGFuIFNsZW1hbpIBC2d1ZXN0X2hvdXNl4AEA!16s%2Fg%2F11tjbz1c_g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>2 hari lalu di 
 Google</t>
@@ -1381,25 +1355,24 @@
           <t>0811-2652-284</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.9</v>
+        <v>-7.720249</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.720249</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.344885</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rengganis+Homestay/@-7.6925251,110.2618776,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59ca91f6ca67:0xa04bdf5f4bdc7d4b!5m2!4m1!1i2!8m2!3d-7.7202487!4d110.3448853!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWxvZGdl4AEA!16s%2Fg%2F11gjmt_lmg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rengganis+Homestay/@-7.6925251,110.2618776,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59ca91f6ca67:0xa04bdf5f4bdc7d4b!5m2!4m1!1i2!8m2!3d-7.7202487!4d110.3448853!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWxvZGdl4AEA!16s%2Fg%2F11gjmt_lmg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>sebulan lalu di 
 Google</t>
@@ -1423,25 +1396,24 @@
           <t>0812-2548-0677</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.4</v>
+        <v>-7.730195</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.730195</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.37918</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/La+Luna+Resort+Yogyakarta/@-7.7301952,110.3070817,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59288d7b5eb9:0x2fadfd3d2610b930!5m2!4m1!1i2!8m2!3d-7.7301952!4d110.3791795!15sChFQZW5naW5hcGFuIFNsZW1hbpIBDHJlc29ydF9ob3RlbOABAA!16s%2Fg%2F11np7j3dqm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1460,25 +1432,24 @@
           <t>0812-2797-6938</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F25" t="n">
-        <v>3.8</v>
+        <v>-7.742863</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.742863</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.254241</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pondok+Inspirasi+Minggir/@-7.7428633,110.1821429,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7af7f4bb6ad427:0x7e434124309d9180!5m2!4m1!1i2!8m2!3d-7.7428633!4d110.2542407!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11h04kpygf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1501,25 +1472,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>-7.711663</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.711663</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.357098</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Reddoorz+Syariah+near+Sleman+City+Hall+4/@-7.7116631,110.285,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5fabd82d2133:0x92d9514d45f952c6!5m2!4m1!1i2!8m2!3d-7.7116631!4d110.3570978!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11y46g3y0t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1542,25 +1512,24 @@
           <t>0812-8686-095</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.6</v>
+        <v>-7.752467</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.752467</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.381173</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Urbanview+Hotel+Syariah+Casa+Azmya+Yogyakarta+by+RedDoorz/@-7.7116631,110.285,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a593d53b58167:0xb86b48878bed3495!5m2!4m1!1i2!8m2!3d-7.752467!4d110.381173!15sChFQZW5naW5hcGFuIFNsZW1hbpIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11g_v6f165?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Urbanview+Hotel+Syariah+Casa+Azmya+Yogyakarta+by+RedDoorz/@-7.7116631,110.285,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a593d53b58167:0xb86b48878bed3495!5m2!4m1!1i2!8m2!3d-7.752467!4d110.381173!15sChFQZW5naW5hcGFuIFNsZW1hbpIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11g_v6f165?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>2 jam lalu di 
 Google</t>
@@ -1588,25 +1557,24 @@
           <t>0856-4274-3277</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.3</v>
+        <v>-7.750105</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.750105</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.333434</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Limasan+Wongso/@-7.7116631,110.285,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59aff25a993b:0xe64ad09ce42ec2a2!5m2!4m1!1i2!8m2!3d-7.7501053!4d110.3334336!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11fmz8xxfw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Limasan+Wongso/@-7.7116631,110.285,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59aff25a993b:0xe64ad09ce42ec2a2!5m2!4m1!1i2!8m2!3d-7.7501053!4d110.3334336!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11fmz8xxfw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>sebulan lalu di 
 Google</t>
@@ -1634,25 +1602,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.3</v>
+        <v>-7.745872</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.745872</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.354277</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Happy+Syariah+Hotel+near+Jombor+Mitra+RedDoorz/@-7.7116631,110.285,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59d77e66ba91:0x1ff66d159f992c1f!5m2!4m1!1i2!8m2!3d-7.7458722!4d110.3542767!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11nncqh3vn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1675,25 +1642,24 @@
           <t>0877-3901-2880</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.8</v>
+        <v>-7.75715</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.75715</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.323571</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Rumah+Ukhi/@-7.75715,110.2514731,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7af7d34b002e49:0x5df12f06f9633605!5m2!4m1!1i2!8m2!3d-7.75715!4d110.3235709!15sChFQZW5naW5hcGFuIFNsZW1hbpIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11f4wv203v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1716,25 +1682,24 @@
           <t>0813-8666-9967</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.4</v>
+        <v>-7.711279</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.711279</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.372777</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Griya90TR+Guesthouse/@-7.7112786,110.3006787,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5fdc09f09379:0x764a86c7b01be0e1!5m2!4m1!1i2!8m2!3d-7.7112786!4d110.3727765!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBmhvc3RlbOABAA!16s%2Fg%2F11fq921tyb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Griya90TR+Guesthouse/@-7.7112786,110.3006787,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5fdc09f09379:0x764a86c7b01be0e1!5m2!4m1!1i2!8m2!3d-7.7112786!4d110.3727765!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBmhvc3RlbOABAA!16s%2Fg%2F11fq921tyb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>sebulan lalu di 
 Google</t>
@@ -1758,25 +1723,24 @@
           <t>0822-5449-9775</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.1</v>
+        <v>-7.711533</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.711533</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.357276</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Global+House+Syariah/@-7.7112786,110.3006787,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5f3b736a2ed5:0x466063d6cea7d711!5m2!4m1!1i2!8m2!3d-7.7115328!4d110.3572755!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11l1fpqqfn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Global+House+Syariah/@-7.7112786,110.3006787,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5f3b736a2ed5:0x466063d6cea7d711!5m2!4m1!1i2!8m2!3d-7.7115328!4d110.3572755!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11l1fpqqfn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>2 hari lalu di 
 Google</t>
@@ -1804,25 +1768,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.7</v>
+        <v>-7.74541</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.74541</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.378312</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Just+11+Boutique+Residence+Syariah/@-7.7112786,110.3006787,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a594c81bd4dbf:0x4834762d360a5861!5m2!4m1!1i2!8m2!3d-7.7454096!4d110.3783121!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11g_z42sqp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Just+11+Boutique+Residence+Syariah/@-7.7112786,110.3006787,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a594c81bd4dbf:0x4834762d360a5861!5m2!4m1!1i2!8m2!3d-7.7454096!4d110.3783121!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11g_z42sqp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>3 minggu lalu di 
 Google</t>
@@ -1850,25 +1813,24 @@
           <t>(021) 29707601</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.5</v>
+        <v>-7.739298</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.739298</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.369731</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Ndalem+Padma+Asri+Guest+House/@-7.7112786,110.3006787,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a58fb8e1788b7:0x93d95bbe66e076fc!5m2!4m1!1i2!8m2!3d-7.7392981!4d110.3697307!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F1tfn67_x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1891,25 +1853,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.5</v>
+        <v>-7.742856</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.742856</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.371669</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/RedDoorz+Syariah+near+Taman+Pelangi+Jogja+2/@-7.7112786,110.3006787,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59e4c16fa245:0x534f8df5a4a7e35e!5m2!4m1!1i2!8m2!3d-7.7428558!4d110.3716688!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11fntbggq9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1932,25 +1893,24 @@
           <t>0895-4173-00072</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.6</v>
+        <v>-7.74826</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.74826</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.339441</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/House+Acasia+Syariah+near+Universitas+Aisyiah+Yogyakarta+RedPartner/@-7.7482596,110.2673431,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a590e54e32f05:0x23f3126b08fc774a!5m2!4m1!1i2!8m2!3d-7.7482596!4d110.3394409!15sChFQZW5naW5hcGFuIFNsZW1hbpIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11mtd7st64?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/House+Acasia+Syariah+near+Universitas+Aisyiah+Yogyakarta+RedPartner/@-7.7482596,110.2673431,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a590e54e32f05:0x23f3126b08fc774a!5m2!4m1!1i2!8m2!3d-7.7482596!4d110.3394409!15sChFQZW5naW5hcGFuIFNsZW1hbpIBEnByaXZhdGVfZ3Vlc3Rfcm9vbeABAA!16s%2Fg%2F11mtd7st64?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>2 minggu lalu di 
 Google</t>
@@ -1974,25 +1934,24 @@
           <t>(021) 29706666</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.4</v>
+        <v>-7.74251</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.74251</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.348206</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Medical+Kost/@-7.7482596,110.2673431,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a589179f0fcc3:0x3efdbc457bf2754!5m2!4m1!1i2!8m2!3d-7.7425098!4d110.3482059!15sChFQZW5naW5hcGFuIFNsZW1hbpIBE2V4dGVuZGVkX3N0YXlfaG90ZWzgAQA!16s%2Fg%2F11b_031h1p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Medical+Kost/@-7.7482596,110.2673431,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a589179f0fcc3:0x3efdbc457bf2754!5m2!4m1!1i2!8m2!3d-7.7425098!4d110.3482059!15sChFQZW5naW5hcGFuIFNsZW1hbpIBE2V4dGVuZGVkX3N0YXlfaG90ZWzgAQA!16s%2Fg%2F11b_031h1p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>2 minggu lalu di 
 Google</t>
@@ -2020,25 +1979,24 @@
           <t>(021) 29707601</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F38" t="n">
-        <v>3.9</v>
+        <v>-7.66288</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.66288</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.413847</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pakemsari+Hotel+%26+Villa/@-7.6628799,110.3417487,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5fdb8f44fc59:0x70e247ab4aef4da8!5m2!4m1!1i2!8m2!3d-7.6628799!4d110.4138465!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F1pzs72r9h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2057,25 +2015,24 @@
           <t>0811-2557-899</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.9</v>
+        <v>-7.708669</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.708669</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.355706</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Swasa+Living/@-7.7086694,110.2836084,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5f86dab6a409:0xb4e58e902c637db!5m2!4m1!1i2!8m2!3d-7.7086694!4d110.3557062!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11s1r5_kj2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Swasa+Living/@-7.7086694,110.2836084,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5f86dab6a409:0xb4e58e902c637db!5m2!4m1!1i2!8m2!3d-7.7086694!4d110.3557062!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11s1r5_kj2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>4 minggu lalu di 
 Google</t>
@@ -2103,25 +2060,24 @@
           <t>0812-2795-5050</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F40" t="n">
-        <v>4.8</v>
+        <v>-7.73498</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.73498</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.380038</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Villa+Verde+Jogja/@-7.7086694,110.2836084,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59223f2f321d:0x2df81da14426f431!5m2!4m1!1i2!8m2!3d-7.7349804!4d110.3800383!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBXZpbGxh4AEA!16s%2Fg%2F11tjdlpcc3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Villa+Verde+Jogja/@-7.7086694,110.2836084,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a59223f2f321d:0x2df81da14426f431!5m2!4m1!1i2!8m2!3d-7.7349804!4d110.3800383!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBXZpbGxh4AEA!16s%2Fg%2F11tjdlpcc3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>6 hari lalu di 
 Google</t>
@@ -2149,25 +2105,24 @@
           <t>0896-7640-3110</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.8</v>
+        <v>-7.707588</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.707588</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.365109</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Casa+Familia/@-7.7086694,110.2836084,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5f21722f0cb9:0x4217a6c15f5f24a8!5m2!4m1!1i2!8m2!3d-7.7075875!4d110.3651086!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11fvs1rblv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Casa+Familia/@-7.7086694,110.2836084,13z/data=!4m14!1m3!2m2!1sPenginapan+Sleman!6e3!3m9!1s0x2e7a5f21722f0cb9:0x4217a6c15f5f24a8!5m2!4m1!1i2!8m2!3d-7.7075875!4d110.3651086!15sChFQZW5naW5hcGFuIFNsZW1hbpIBBWhvdGVs4AEA!16s%2Fg%2F11fvs1rblv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>3 minggu lalu di 
 Google</t>
